--- a/Output/Classifier Inference/Random Forest/Individual_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/Individual_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0001778841018676758</v>
+        <v>0.01023423274358114</v>
       </c>
       <c r="B2" t="n">
-        <v>1.185894012451172e-05</v>
+        <v>6.873225482593106e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/Random Forest/Individual_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/Individual_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01023423274358114</v>
+        <v>0.004432650407155355</v>
       </c>
       <c r="B2" t="n">
-        <v>6.873225482593106e-06</v>
+        <v>2.976931099499903e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Classifier Inference/Random Forest/Individual_Features_PCA Prediction Statistics.xlsx
+++ b/Output/Classifier Inference/Random Forest/Individual_Features_PCA Prediction Statistics.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004432650407155355</v>
+        <v>0.005759743849436442</v>
       </c>
       <c r="B2" t="n">
-        <v>2.976931099499903e-06</v>
+        <v>3.868196003651069e-06</v>
       </c>
     </row>
   </sheetData>
